--- a/打印审验系统剩余作业清单.xlsx
+++ b/打印审验系统剩余作业清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Domain</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>读卡器和打印机名要注册在webserver的数据库中</t>
+  </si>
+  <si>
+    <t>读卡器使用的说明文档</t>
   </si>
   <si>
     <t>完成</t>
@@ -86,7 +89,7 @@
     <t>将原生cups打成rpm安装包</t>
   </si>
   <si>
-    <t>难点：经过调查，专用机服务器没有cups模块及系统底层的支持模块（缺少各种库）。另外根据麒麟厂家的信息，专用机服务器没有进行过cups适配。所以，在安装我们改造cups程序之前，需要做原生cups与服务器之间的适配。这个工作量和可能遇到的技术难题是难以估计的。</t>
+    <t>难点：经过调查，专用机服务器没有cups模块及系统底层的支持模块（缺少各种库）。另外根据麒麟厂家的信息，专用机服务器没有进行过cups适配。所以，在安装我们改造cups程序之前，需要做原生cups与服务器之间的适配。这个工作量和可能遇到的技术难题目前是难以估计的。只能遇到问题解决问题。</t>
   </si>
   <si>
     <t>制作cups需要支持的动态链接库清单</t>
@@ -147,13 +150,22 @@
     <t>通用机</t>
   </si>
   <si>
-    <t>安装操作系统</t>
-  </si>
-  <si>
-    <t>安装桌面开发版操作系统</t>
-  </si>
-  <si>
-    <t>安装服务器开发版操作系统</t>
+    <t>安装专用机开发环境</t>
+  </si>
+  <si>
+    <t>安装专用机桌面开发版操作系统</t>
+  </si>
+  <si>
+    <t>难点：专用服务器版操作系统安装不上。应该是麒麟操作系统厂商和整机厂商不兼容。（安装专用机桌面版时就发生过同样问题，后来通过整机厂商更换显卡解决的）。服务器版安装不上，将来可能会导致在通用机上无法编译服务器开发程序。</t>
+  </si>
+  <si>
+    <t>安装打印客户端程序</t>
+  </si>
+  <si>
+    <t>安装RabbitMQ客户端</t>
+  </si>
+  <si>
+    <t>安装专用机服务器开发版操作系统</t>
   </si>
   <si>
     <t>专用机个人PC</t>
@@ -162,13 +174,10 @@
     <t>部署应用程序</t>
   </si>
   <si>
-    <t>安装打印客户端程序</t>
+    <t>专用机服务器</t>
   </si>
   <si>
     <t>安装RabbitMQ</t>
-  </si>
-  <si>
-    <t>专用机服务器</t>
   </si>
   <si>
     <t>安装cups</t>
@@ -182,10 +191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -212,16 +221,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,17 +244,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,24 +258,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -296,9 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,17 +298,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,6 +325,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -348,14 +340,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,13 +403,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +529,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,19 +559,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,145 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,6 +668,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="true"/>
       </left>
@@ -727,7 +735,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="true"/>
       </left>
       <right style="thin">
@@ -738,10 +746,197 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="dashed">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="dashed">
+        <color auto="true"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="dashed">
+        <color auto="true"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="dotted">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="dotted">
+        <color auto="true"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="dashed">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="true"/>
       </left>
       <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="dotted">
+        <color auto="true"/>
+      </top>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom style="double">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top style="double">
+        <color auto="true"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
         <color auto="true"/>
       </right>
       <top/>
@@ -752,7 +947,22 @@
       <left style="thin">
         <color auto="true"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top style="dotted">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
         <color auto="true"/>
       </right>
       <top style="dashed">
@@ -765,10 +975,23 @@
       <left style="thin">
         <color auto="true"/>
       </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="dashed">
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
         <color auto="true"/>
       </top>
       <bottom style="dotted">
@@ -780,12 +1003,23 @@
       <left style="thin">
         <color auto="true"/>
       </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="dashed">
-        <color auto="true"/>
-      </top>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top style="dotted">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top/>
       <bottom style="dashed">
         <color auto="true"/>
       </bottom>
@@ -795,251 +1029,23 @@
       <left style="thin">
         <color auto="true"/>
       </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="true"/>
       </right>
       <top style="dotted">
         <color auto="true"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="dotted">
-        <color auto="true"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="dashed">
-        <color auto="true"/>
-      </top>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="true"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
       <bottom style="medium">
         <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="thin">
-        <color auto="true"/>
-      </right>
-      <top style="dotted">
-        <color auto="true"/>
-      </top>
-      <bottom style="medium">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="medium">
-        <color auto="true"/>
-      </right>
-      <top style="medium">
-        <color auto="true"/>
-      </top>
-      <bottom style="double">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="medium">
-        <color auto="true"/>
-      </right>
-      <top style="double">
-        <color auto="true"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="medium">
-        <color auto="true"/>
-      </right>
-      <top style="dotted">
-        <color auto="true"/>
-      </top>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="medium">
-        <color auto="true"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="medium">
-        <color auto="true"/>
-      </right>
-      <top style="dashed">
-        <color auto="true"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="medium">
-        <color auto="true"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="medium">
-        <color auto="true"/>
-      </right>
-      <top style="thin">
-        <color auto="true"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="medium">
-        <color auto="true"/>
-      </right>
-      <top style="dotted">
-        <color auto="true"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="medium">
-        <color auto="true"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="true"/>
-      </left>
-      <right style="medium">
-        <color auto="true"/>
-      </right>
-      <top style="dotted">
-        <color auto="true"/>
-      </top>
-      <bottom style="medium">
-        <color auto="true"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,30 +1115,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1141,157 +1123,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="38" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="40" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="40" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="38" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="36" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="35" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="37" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="36" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="34" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1310,22 +1307,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -1337,10 +1343,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="true" applyBorder="true">
@@ -1352,26 +1358,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
@@ -1394,13 +1394,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true" applyAlignment="true">
@@ -1430,31 +1439,34 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1466,13 +1478,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -1490,7 +1502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1502,16 +1514,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1845,10 +1866,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F34"/>
+  <dimension ref="B1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1874,11 +1895,11 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" ht="17.25" spans="2:6">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1888,10 +1909,10 @@
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="49" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1899,346 +1920,381 @@
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="F4" s="51"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="47"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="9" t="s">
+      <c r="E5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="48" t="s">
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="D6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="F6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14" t="s">
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="51" t="s">
+      <c r="E7" s="56" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="12"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16" t="s">
+      <c r="F7" s="57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="12"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="55"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="53"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="12"/>
-      <c r="C9" s="18" t="s">
+      <c r="E9" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="55" t="s">
+      <c r="F9" s="55"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="15"/>
+      <c r="C10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="D10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="60" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="12"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="57" t="s">
+      <c r="F10" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="58"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="12"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="22" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="F11" s="63"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="15"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" ht="38" customHeight="true" spans="2:6">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25" t="s">
+      <c r="E12" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="63"/>
+    </row>
+    <row r="13" ht="73" customHeight="true" spans="2:6">
+      <c r="B13" s="3"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="61"/>
-    </row>
-    <row r="13" ht="66" spans="2:6">
-      <c r="B13" s="26" t="s">
+      <c r="E13" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="F13" s="66"/>
+    </row>
+    <row r="14" ht="66" spans="2:6">
+      <c r="B14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="C14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="63" t="s">
+      <c r="E14" s="67" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="6"/>
-      <c r="C14" s="29" t="s">
+      <c r="F14" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="30" t="s">
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="9"/>
+      <c r="C15" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="65" t="s">
+      <c r="E15" s="69" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="6"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="64" t="s">
+      <c r="F15" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="66"/>
-    </row>
-    <row r="16" ht="33" spans="2:6">
-      <c r="B16" s="6"/>
-      <c r="C16" s="15"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="9"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="68"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="6"/>
-      <c r="C17" s="32" t="s">
+      <c r="F16" s="71"/>
+    </row>
+    <row r="17" ht="33" spans="2:6">
+      <c r="B17" s="9"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="69" t="s">
+      <c r="F17" s="73"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="9"/>
+      <c r="C18" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="66"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="6"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="69" t="s">
+      <c r="D18" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="66"/>
+      <c r="F18" s="71"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="6"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="70" t="s">
+      <c r="D19" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="74" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="71"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="F20" s="76"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="72" t="s">
+      <c r="C21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="66"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="12"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="73" t="s">
+      <c r="D21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="71"/>
+      <c r="F21" s="63" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="72" t="s">
+      <c r="F22" s="79"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="66"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="23"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="55" t="s">
+      <c r="F23" s="79"/>
+    </row>
+    <row r="24" ht="43" customHeight="true" spans="2:6">
+      <c r="B24" s="15"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="66"/>
-    </row>
-    <row r="24" ht="34" customHeight="true" spans="2:6">
-      <c r="B24" s="26" t="s">
+      <c r="F24" s="76"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="75"/>
-    </row>
-    <row r="25" ht="50.25" spans="2:6">
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="76" t="s">
+      <c r="F25" s="71"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="3"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="71"/>
+    </row>
+    <row r="27" ht="34" customHeight="true" spans="2:6">
+      <c r="B27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="77" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
+      <c r="D27" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="83"/>
+    </row>
+    <row r="28" ht="50.25" spans="2:6">
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="85" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="F25:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/打印审验系统剩余作业清单.xlsx
+++ b/打印审验系统剩余作业清单.xlsx
@@ -46,7 +46,7 @@
     <t>读卡器和打印机名要注册在webserver的数据库中</t>
   </si>
   <si>
-    <t>读卡器使用的说明文档</t>
+    <t>制作读卡器使用的说明文档</t>
   </si>
   <si>
     <t>完成</t>
@@ -191,9 +191,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -221,7 +221,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,15 +251,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +272,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -281,9 +296,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,22 +318,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,17 +349,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,187 +403,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,6 +1037,15 @@
       </top>
       <bottom style="medium">
         <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,21 +1098,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1115,15 +1109,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1135,6 +1120,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,152 +1143,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="40" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="39" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="40" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="37" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="36" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="39" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="40" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="37" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1307,9 +1307,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1343,12 +1340,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
@@ -1400,15 +1391,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
@@ -1454,16 +1436,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1522,12 +1498,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
@@ -1869,7 +1839,7 @@
   <dimension ref="B1:F37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1895,7 +1865,7 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="41" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1909,369 +1879,369 @@
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="51"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="15"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="15"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="15"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="53" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="15"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="63"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="15"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="25" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="63"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" ht="73" customHeight="true" spans="2:6">
       <c r="B13" s="3"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="66"/>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" ht="66" spans="2:6">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="60" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="9"/>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="62" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="9"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="31" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="71"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" ht="33" spans="2:6">
-      <c r="B17" s="9"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="32" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="73"/>
+      <c r="F17" s="65"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="9"/>
-      <c r="C18" s="33" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="71"/>
+      <c r="F18" s="63"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="9"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="34" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="71"/>
+      <c r="F19" s="63"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="9"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="11" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="75" t="s">
+      <c r="E20" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="76"/>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="55" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="78" t="s">
+      <c r="E22" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="79"/>
+      <c r="F22" s="63"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="78" t="s">
+      <c r="E23" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="79"/>
+      <c r="F23" s="63"/>
     </row>
     <row r="24" ht="43" customHeight="true" spans="2:6">
-      <c r="B24" s="15"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="40" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="E24" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="76"/>
+      <c r="F24" s="68"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="71"/>
+      <c r="F25" s="63"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="3"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="20" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="71"/>
+      <c r="F26" s="63"/>
     </row>
     <row r="27" ht="34" customHeight="true" spans="2:6">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="82" t="s">
+      <c r="E27" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="83"/>
+      <c r="F27" s="73"/>
     </row>
     <row r="28" ht="50.25" spans="2:6">
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="84" t="s">
+      <c r="E28" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="85" t="s">
+      <c r="F28" s="75" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
     </row>
     <row r="36" spans="3:5">
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="3:5">
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/打印审验系统剩余作业清单.xlsx
+++ b/打印审验系统剩余作业清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>Project</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>安装奔图打印机驱动</t>
+  </si>
+  <si>
+    <t>制作cups适配，打包安装的说明文档</t>
   </si>
   <si>
     <t>软件测试</t>
@@ -197,10 +200,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -233,24 +236,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,40 +258,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,7 +284,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,6 +320,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -339,27 +352,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,18 +430,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -451,13 +568,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,145 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,6 +1086,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1094,6 +1132,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,222 +1174,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="38" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="39" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="39" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="38" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="40" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="36" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="38" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="40" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="39" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="35" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1346,9 +1349,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1370,12 +1370,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
@@ -1526,9 +1520,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1559,9 +1550,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
@@ -1577,10 +1565,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true">
@@ -1914,10 +1899,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:H39"/>
+  <dimension ref="C1:H40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1930,6 +1915,7 @@
     <col min="8" max="8" width="56.7142857142857" customWidth="true"/>
   </cols>
   <sheetData>
+    <row r="1" ht="17.25"/>
     <row r="2" ht="17.25" spans="3:8">
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1937,16 +1923,16 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1957,459 +1943,471 @@
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="34" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="33"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" ht="61" customHeight="true" spans="3:8">
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="40"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" ht="66" spans="3:8">
       <c r="C9" s="4"/>
       <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="44"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="4"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="45" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="4"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="46" t="s">
+      <c r="E11" s="46"/>
+      <c r="F11" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="50"/>
+      <c r="H11" s="47"/>
     </row>
     <row r="12" ht="33" spans="3:8">
       <c r="C12" s="4"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="51" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="53"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="4"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="50"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="4"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="55" t="s">
+      <c r="E14" s="54"/>
+      <c r="F14" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="50"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" ht="17.25" spans="3:8">
-      <c r="C15" s="8"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59" t="s">
+      <c r="E15" s="55"/>
+      <c r="F15" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="61"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" ht="17.25" spans="3:8">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="65"/>
+      <c r="H16" s="62"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="66" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="68"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="11"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="59" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="70" t="s">
+      <c r="G18" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="71"/>
+      <c r="H18" s="67"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="11"/>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="33"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="11"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="27" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="50"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="11"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="27" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="50"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" ht="43" customHeight="true" spans="3:8">
-      <c r="C22" s="11"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="73" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="61"/>
+      <c r="H22" s="58"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="11"/>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="72" t="s">
+      <c r="G23" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="11"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="27" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="50"/>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="11"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="27" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="50"/>
+      <c r="H25" s="47"/>
     </row>
     <row r="26" ht="34" customHeight="true" spans="3:8">
-      <c r="C26" s="11"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="10"/>
+      <c r="D26" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="76" t="s">
+      <c r="F26" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="77" t="s">
+      <c r="G26" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="78" t="s">
+      <c r="H26" s="74" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="true" spans="3:8">
-      <c r="C27" s="11"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="82"/>
+      <c r="H27" s="77"/>
     </row>
     <row r="28" ht="34" customHeight="true" spans="3:8">
-      <c r="C28" s="11"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="31" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="82"/>
+      <c r="H28" s="77"/>
     </row>
     <row r="29" ht="34" customHeight="true" spans="3:8">
-      <c r="C29" s="11"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="83" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="84" t="s">
+      <c r="G29" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="82"/>
-    </row>
-    <row r="30" ht="17.25" spans="3:8">
-      <c r="C30" s="17"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="85" t="s">
+      <c r="H29" s="77"/>
+    </row>
+    <row r="30" ht="34" customHeight="true" spans="3:8">
+      <c r="C30" s="10"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="86" t="s">
+      <c r="G30" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="82"/>
-    </row>
-    <row r="31" ht="18" spans="3:8">
-      <c r="C31" s="18" t="s">
+      <c r="H30" s="77"/>
+    </row>
+    <row r="31" ht="17.25" spans="3:8">
+      <c r="C31" s="10"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="H31" s="77"/>
+    </row>
+    <row r="32" ht="18" spans="3:8">
+      <c r="C32" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="88" t="s">
+      <c r="D32" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="89"/>
-    </row>
-    <row r="32" spans="5:7">
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
+      <c r="G32" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="83"/>
     </row>
     <row r="33" spans="5:7">
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
     </row>
     <row r="34" spans="5:7">
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
     </row>
     <row r="35" spans="5:7">
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
     </row>
     <row r="36" spans="5:7">
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
     </row>
     <row r="37" spans="5:7">
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
     </row>
     <row r="38" spans="5:7">
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
     </row>
     <row r="39" spans="5:7">
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="C3:C15"/>
-    <mergeCell ref="C16:C30"/>
+    <mergeCell ref="C16:C31"/>
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="D9:D15"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D26:D31"/>
     <mergeCell ref="E4:E8"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="E26:E31"/>
     <mergeCell ref="H4:H8"/>
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="H19:H22"/>
     <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="H26:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
